--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="195">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -330,6 +336,9 @@
     <t>C_0_0</t>
   </si>
   <si>
+    <t>C_0_1</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -342,6 +351,9 @@
     <t>C_1_2</t>
   </si>
   <si>
+    <t>C_1_3</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -351,6 +363,9 @@
     <t>CS3</t>
   </si>
   <si>
+    <t>C_3_0</t>
+  </si>
+  <si>
     <t>Pipe segment</t>
   </si>
   <si>
@@ -405,22 +420,28 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02</t>
-  </si>
-  <si>
-    <t>PI03</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_0</t>
+    <t>PI02_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_remaining</t>
+  </si>
+  <si>
+    <t>PI03_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_1</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_2</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_2</t>
+    <t>PI05_pre_C_1_3</t>
   </si>
   <si>
     <t>PI05_remaining</t>
@@ -435,7 +456,7 @@
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_remaining</t>
   </si>
   <si>
     <t>N01</t>
@@ -447,22 +468,28 @@
     <t>N02</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N_post_C_1_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_0</t>
-  </si>
-  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N_post_C_1_2</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_2</t>
+    <t>N_post_C_1_3</t>
   </si>
   <si>
     <t>N06_C</t>
@@ -474,33 +501,42 @@
     <t>N08_C</t>
   </si>
   <si>
+    <t>N_post_C_3_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
-    <t>N_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>N_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N07</t>
-  </si>
-  <si>
-    <t>N08</t>
-  </si>
-  <si>
     <t>N10</t>
   </si>
   <si>
@@ -531,7 +567,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1173,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1195,10 +1231,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.2197676818311682</v>
+        <v>0.3723548871128604</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1209,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1217,10 +1253,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.03322545041360352</v>
+        <v>0.06595259576151787</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1228,10 +1264,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.030946056869066</v>
+        <v>0.03181838469559267</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1242,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1250,10 +1286,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.00639479969193303</v>
+        <v>0.006575060516112975</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1261,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01516086172764119</v>
+        <v>0.01558822608023386</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1275,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1286,7 +1322,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1294,10 +1330,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.09103475514508863</v>
+        <v>0.1962100349572231</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1308,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1319,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1330,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1338,10 +1374,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.002524020076275133</v>
+        <v>0.004711011094943538</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1349,10 +1385,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.02259759568661589</v>
+        <v>0.03288669400913096</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1360,10 +1396,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.0008661304989613926</v>
+        <v>0.001594868276121781</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1374,7 +1410,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1385,7 +1421,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1396,7 +1432,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1407,7 +1443,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1418,7 +1454,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1429,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1440,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1448,7 +1484,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1456,10 +1492,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>18391.49740859117</v>
+        <v>47309.88915766518</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1467,10 +1503,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>5180.637136638496</v>
+        <v>11165.98811146874</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1478,10 +1514,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>215.8598806932706</v>
+        <v>465.249504644531</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1492,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1503,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1511,10 +1547,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>54486027.91033981</v>
+        <v>105189733.6935306</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1525,7 +1561,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1536,7 +1572,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1547,151 +1583,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>3.962409953512804</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>5313.67099585974</v>
-      </c>
-      <c r="E51">
-        <v>12473690.04466597</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>37.87185104304367</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>3.939608125400544</v>
+        <v>4.722950300137237</v>
       </c>
       <c r="C52">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6333.570811490037</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>13599356.37645626</v>
       </c>
       <c r="F52">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>37.65391613779465</v>
+        <v>45.14092997669879</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1699,25 +1720,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>2.913192665050075</v>
+        <v>4.690292505426569</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>3906.649627685451</v>
+        <v>6289.776055627138</v>
       </c>
       <c r="E53">
-        <v>10935635.25766069</v>
+        <v>13550833.71629239</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>27.84366079351646</v>
+        <v>44.82879389002755</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1725,25 +1746,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>1.885770084657148</v>
+        <v>4.657926753312031</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D54">
-        <v>2528.855398926929</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>18.02377961529431</v>
+        <v>44.51944908286261</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1751,25 +1772,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>1.879818601523766</v>
+        <v>5.304279892843667</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2520.874341015401</v>
+        <v>7113.145421901214</v>
       </c>
       <c r="E55">
-        <v>9953691.026075777</v>
+        <v>14465887.49983782</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>17.96689663615864</v>
+        <v>50.69715156916003</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1777,25 +1798,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>1.87386921414852</v>
+        <v>3.041027448717598</v>
       </c>
       <c r="C56">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4078.078629279274</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>11122106.21089115</v>
       </c>
       <c r="F56">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>17.91003368782264</v>
+        <v>29.06547780436971</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1803,25 +1824,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>3.073367321220903</v>
+        <v>2.708916660432207</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>4121.447045103655</v>
+        <v>3632.711419972799</v>
       </c>
       <c r="E57">
-        <v>11169320.5558616</v>
+        <v>10638192.07295702</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>29.37457525984889</v>
+        <v>25.89123524711445</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1829,27 +1850,131 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>3.056689002140252</v>
+        <v>2.696332330578206</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>3615.835581951986</v>
+      </c>
+      <c r="E58">
+        <v>10619889.60560405</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>25.7709569641254</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59">
+        <v>2.683839260510136</v>
+      </c>
+      <c r="C59">
         <v>12.5</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>16916025.69007904</v>
       </c>
-      <c r="G58">
-        <v>29.2151675197914</v>
-      </c>
-      <c r="H58">
+      <c r="G59">
+        <v>25.65155092228744</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60">
+        <v>6.13098316537366</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>8221.771044429386</v>
+      </c>
+      <c r="E60">
+        <v>15707294.13531568</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>58.59860133366418</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61">
+        <v>6.056759862950843</v>
+      </c>
+      <c r="C61">
+        <v>12.5</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G61">
+        <v>57.88919118018227</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>5.984250938101857</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>8025.000193013352</v>
+      </c>
+      <c r="E62">
+        <v>15486174.07617624</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>57.19616667403859</v>
+      </c>
+      <c r="H62">
         <v>0</v>
       </c>
     </row>
@@ -1860,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1868,58 +1993,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1927,55 +2052,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F2">
-        <v>111.8884546999135</v>
+        <v>113.144242518777</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="M2">
-        <v>21.747985</v>
+        <v>14.49865666666666</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>5177600.666357243</v>
+        <v>3910263.197377139</v>
       </c>
       <c r="P2">
-        <v>11.228213407232</v>
+        <v>15.11892765537693</v>
       </c>
       <c r="Q2">
-        <v>0.02280831966105517</v>
+        <v>0.0309490631342477</v>
       </c>
       <c r="R2">
-        <v>21.96472977659173</v>
+        <v>25.34626665447339</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1983,55 +2108,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F3">
-        <v>111.696757716821</v>
+        <v>112.9170599125221</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M3">
-        <v>3.106855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N3">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O3">
-        <v>5962104.62076752</v>
+        <v>4160343.621608063</v>
       </c>
       <c r="P3">
-        <v>9.69343935038013</v>
+        <v>14.1689093123166</v>
       </c>
       <c r="Q3">
-        <v>0.01960581499659279</v>
+        <v>0.02895708539190644</v>
       </c>
       <c r="R3">
-        <v>20.42604970649463</v>
+        <v>24.56145347913661</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2039,111 +2164,111 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>111.6967582798555</v>
+        <v>112.9170582868537</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M4">
-        <v>18.64113</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N4">
-        <v>5962104.62076752</v>
+        <v>4160343.621608063</v>
       </c>
       <c r="O4">
-        <v>5180898.616480034</v>
+        <v>3913785.330364708</v>
       </c>
       <c r="P4">
-        <v>11.20152047610207</v>
+        <v>15.07509813971217</v>
       </c>
       <c r="Q4">
-        <v>0.02275367297610745</v>
+        <v>0.03085861730335536</v>
       </c>
       <c r="R4">
-        <v>21.95755095467149</v>
+        <v>25.33470919173698</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F5">
-        <v>111.5069305040898</v>
+        <v>112.6910521570893</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>31.5</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="M5">
-        <v>19.5731865</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="N5">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O5">
-        <v>5281075.463045253</v>
+        <v>3917291.551571103</v>
       </c>
       <c r="P5">
-        <v>10.96465239861523</v>
+        <v>15.03126323507149</v>
       </c>
       <c r="Q5">
-        <v>0.02225996283438475</v>
+        <v>0.03076816843838828</v>
       </c>
       <c r="R5">
-        <v>21.74264557462753</v>
+        <v>25.3232189622581</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2151,55 +2276,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F6">
-        <v>91.72127951886385</v>
+        <v>112.4666759735224</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>0.621371</v>
+        <v>16.155646</v>
       </c>
       <c r="N6">
-        <v>5281075.463045253</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O6">
-        <v>5262347.723921567</v>
+        <v>3818615.35009624</v>
       </c>
       <c r="P6">
-        <v>9.052078959247954</v>
+        <v>15.39390940063599</v>
       </c>
       <c r="Q6">
-        <v>0.01837907082786533</v>
+        <v>0.03153141875502605</v>
       </c>
       <c r="R6">
-        <v>21.78236324644656</v>
+        <v>25.65242504224733</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2207,55 +2332,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F7">
-        <v>91.58094542132814</v>
+        <v>112.2111629863413</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>32.5</v>
+        <v>5.5</v>
       </c>
       <c r="M7">
-        <v>20.1945575</v>
+        <v>3.4175405</v>
       </c>
       <c r="N7">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>5533037.372720466</v>
+        <v>4545192.462580125</v>
       </c>
       <c r="P7">
-        <v>8.583802751266459</v>
+        <v>12.86698919109303</v>
       </c>
       <c r="Q7">
-        <v>0.01740207509407041</v>
+        <v>0.02623372541108748</v>
       </c>
       <c r="R7">
-        <v>21.22771238107293</v>
+        <v>23.47936396352996</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2263,55 +2388,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F8">
-        <v>91.49010548461185</v>
+        <v>92.42551212148066</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="M8">
-        <v>9.320565</v>
+        <v>12.7381055</v>
       </c>
       <c r="N8">
-        <v>6082278.702557526</v>
+        <v>4545192.462580125</v>
       </c>
       <c r="O8">
-        <v>5835898.884031092</v>
+        <v>4065822.919229243</v>
       </c>
       <c r="P8">
-        <v>8.117064922428449</v>
+        <v>11.87151201875485</v>
       </c>
       <c r="Q8">
-        <v>0.01642865141628071</v>
+        <v>0.02427662776351341</v>
       </c>
       <c r="R8">
-        <v>20.65277136303704</v>
+        <v>24.84980455074508</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2319,55 +2444,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F9">
-        <v>91.49010548462473</v>
+        <v>92.27902212016393</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="M9">
-        <v>10.8739925</v>
+        <v>16.155646</v>
       </c>
       <c r="N9">
-        <v>5835898.884031092</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5534154.598728091</v>
+        <v>4130455.347439364</v>
       </c>
       <c r="P9">
-        <v>8.573506226730851</v>
+        <v>11.66436613262302</v>
       </c>
       <c r="Q9">
-        <v>0.01738109377009237</v>
+        <v>0.02384309100455831</v>
       </c>
       <c r="R9">
-        <v>21.22550643592967</v>
+        <v>24.6515920069197</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2375,202 +2500,202 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F10">
-        <v>91.39955229544371</v>
+        <v>92.14853025517932</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>20.1945575</v>
+        <v>1.242742</v>
       </c>
       <c r="N10">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O10">
-        <v>5535275.380647736</v>
+        <v>4677317.698488029</v>
       </c>
       <c r="P10">
-        <v>8.563235170420672</v>
+        <v>10.26167585279165</v>
       </c>
       <c r="Q10">
-        <v>0.01736016400274916</v>
+        <v>0.02090537828513303</v>
       </c>
       <c r="R10">
-        <v>21.22329413015187</v>
+        <v>23.13826715825391</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F11">
-        <v>91.30928569681608</v>
+        <v>92.1485302551792</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>14.912904</v>
       </c>
       <c r="N11">
-        <v>6082278.702557526</v>
+        <v>4677317.698488029</v>
       </c>
       <c r="O11">
-        <v>5218100.651013173</v>
+        <v>4132204.481111447</v>
       </c>
       <c r="P11">
-        <v>9.089919976524934</v>
+        <v>11.64286235963864</v>
       </c>
       <c r="Q11">
-        <v>0.01846049736068734</v>
+        <v>0.02379886844880079</v>
       </c>
       <c r="R11">
-        <v>21.87703435734771</v>
+        <v>24.6462907138632</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F12">
-        <v>91.16123779023167</v>
+        <v>92.01864459067278</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>31.06855</v>
+        <v>16.155646</v>
       </c>
       <c r="N12">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O12">
-        <v>5221076.863465678</v>
+        <v>4133944.794740473</v>
       </c>
       <c r="P12">
-        <v>9.069868577379331</v>
+        <v>11.62147868523681</v>
       </c>
       <c r="Q12">
-        <v>0.01841946651724044</v>
+        <v>0.02375489378979321</v>
       </c>
       <c r="R12">
-        <v>21.87062942357113</v>
+        <v>24.64101939818303</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F13">
-        <v>91.01399329891385</v>
+        <v>91.88936073274286</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -2579,54 +2704,54 @@
         <v>31.06855</v>
       </c>
       <c r="N13">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5224030.537804731</v>
+        <v>3509684.591430287</v>
       </c>
       <c r="P13">
-        <v>9.049960424306089</v>
+        <v>13.69559047978017</v>
       </c>
       <c r="Q13">
-        <v>0.01837873035601026</v>
+        <v>0.02811384779065762</v>
       </c>
       <c r="R13">
-        <v>21.86427830352972</v>
+        <v>26.768476667794</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F14">
-        <v>91.01399329891386</v>
+        <v>91.5940236877143</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
         <v>50</v>
@@ -2635,19 +2760,131 @@
         <v>31.06855</v>
       </c>
       <c r="N14">
-        <v>5224030.537804731</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O14">
-        <v>4188132.461851356</v>
+        <v>3518612.34480698</v>
       </c>
       <c r="P14">
-        <v>11.34346192524139</v>
+        <v>13.6166775055779</v>
       </c>
       <c r="Q14">
-        <v>0.0231786028379682</v>
+        <v>0.02795003539006163</v>
       </c>
       <c r="R14">
-        <v>24.47848951948986</v>
+        <v>26.73424345258185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15">
+        <v>91.30226207100091</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>31.06855</v>
+      </c>
+      <c r="N15">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O15">
+        <v>3527382.295296871</v>
+      </c>
+      <c r="P15">
+        <v>13.53930200202775</v>
+      </c>
+      <c r="Q15">
+        <v>0.02778943601298772</v>
+      </c>
+      <c r="R15">
+        <v>26.70073770841383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16">
+        <v>91.01399329891385</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>31.06855</v>
+      </c>
+      <c r="N16">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O16">
+        <v>3535999.081207058</v>
+      </c>
+      <c r="P16">
+        <v>13.46341236725417</v>
+      </c>
+      <c r="Q16">
+        <v>0.02763194133806877</v>
+      </c>
+      <c r="R16">
+        <v>26.66793455380455</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2894,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2665,58 +2902,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2724,40 +2961,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G2">
-        <v>21.747985</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="H2">
-        <v>1.174729202674639</v>
+        <v>1.207041069857022</v>
       </c>
       <c r="I2">
-        <v>37.87185104304367</v>
+        <v>45.14092997669879</v>
       </c>
       <c r="J2">
-        <v>3.962409953512804</v>
+        <v>4.722950300137237</v>
       </c>
       <c r="K2">
-        <v>5313.67099585974</v>
+        <v>6333.570811490037</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.962409953512804</v>
+        <v>4.722950300137237</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2766,51 +3003,54 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>12473690.04466597</v>
+        <v>13599356.37645626</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>12473690.04466597</v>
+        <v>13599356.37645626</v>
       </c>
     </row>
     <row r="3" spans="1:18">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G3">
-        <v>43.49597</v>
+        <v>28.99731333333333</v>
       </c>
       <c r="H3">
-        <v>1.173981417665706</v>
+        <v>1.205954817339156</v>
       </c>
       <c r="I3">
-        <v>37.65391613779465</v>
+        <v>44.82879389002755</v>
       </c>
       <c r="J3">
-        <v>3.939608125400544</v>
+        <v>4.690292505426569</v>
       </c>
       <c r="K3">
-        <v>5283.093288324637</v>
+        <v>6289.776055627138</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.5</v>
+        <v>4.690292505426569</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2819,54 +3059,51 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13550833.71629239</v>
       </c>
       <c r="Q3">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16916025.69007904</v>
+        <v>13550833.71629239</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>102.5</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>63.6905275</v>
+        <v>43.49597</v>
       </c>
       <c r="H4">
-        <v>1.155810870290596</v>
+        <v>1.204875412270924</v>
       </c>
       <c r="I4">
-        <v>27.84366079351646</v>
+        <v>44.51944908286261</v>
       </c>
       <c r="J4">
-        <v>2.913192665050075</v>
+        <v>4.657926753312031</v>
       </c>
       <c r="K4">
-        <v>3906.649627685451</v>
+        <v>6246.3729347265</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.913192665050075</v>
+        <v>12.5</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2875,13 +3112,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>10935635.25766069</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R4">
-        <v>10935635.25766069</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2889,40 +3126,40 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>83.885085</v>
+        <v>59.651616</v>
       </c>
       <c r="H5">
-        <v>1.099265790711081</v>
+        <v>1.236010396560546</v>
       </c>
       <c r="I5">
-        <v>18.02377961529431</v>
+        <v>50.69715156916003</v>
       </c>
       <c r="J5">
-        <v>1.885770084657148</v>
+        <v>5.304279892843667</v>
       </c>
       <c r="K5">
-        <v>2528.855398926929</v>
+        <v>7113.145421901214</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.885770084657148</v>
+        <v>5.304279892843667</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2931,13 +3168,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>9953691.026075777</v>
+        <v>14465887.49983782</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>9953691.026075777</v>
+        <v>14465887.49983782</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2945,40 +3182,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F6">
-        <v>167.5</v>
+        <v>122</v>
       </c>
       <c r="G6">
-        <v>104.0796425</v>
+        <v>75.80726199999999</v>
       </c>
       <c r="H6">
-        <v>1.099043872745335</v>
+        <v>1.160859281613618</v>
       </c>
       <c r="I6">
-        <v>17.96689663615864</v>
+        <v>29.06547780436971</v>
       </c>
       <c r="J6">
-        <v>1.879818601523766</v>
+        <v>3.041027448717598</v>
       </c>
       <c r="K6">
-        <v>2520.874341015401</v>
+        <v>4078.078629279274</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.879818601523766</v>
+        <v>3.041027448717598</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -2987,51 +3224,54 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>9953691.026075777</v>
+        <v>11122106.21089115</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>9953691.026075777</v>
+        <v>11122106.21089115</v>
       </c>
     </row>
     <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="G7">
-        <v>124.2742</v>
+        <v>91.962908</v>
       </c>
       <c r="H7">
-        <v>1.098821338468942</v>
+        <v>1.14269441893632</v>
       </c>
       <c r="I7">
-        <v>17.91003368782264</v>
+        <v>25.89123524711445</v>
       </c>
       <c r="J7">
-        <v>1.87386921414852</v>
+        <v>2.708916660432207</v>
       </c>
       <c r="K7">
-        <v>2512.896093557449</v>
+        <v>3632.711419972799</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.5</v>
+        <v>2.708916660432207</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3040,54 +3280,54 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10638192.07295702</v>
       </c>
       <c r="Q7">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>16916025.69007904</v>
+        <v>10638192.07295702</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="G8">
-        <v>155.34275</v>
+        <v>108.118554</v>
       </c>
       <c r="H8">
-        <v>1.165611610304328</v>
+        <v>1.142210724265788</v>
       </c>
       <c r="I8">
-        <v>29.37457525984889</v>
+        <v>25.7709569641254</v>
       </c>
       <c r="J8">
-        <v>3.073367321220903</v>
+        <v>2.696332330578206</v>
       </c>
       <c r="K8">
-        <v>4121.447045103655</v>
+        <v>3615.835581951986</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.073367321220903</v>
+        <v>2.696332330578206</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3096,45 +3336,45 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>11169320.5558616</v>
+        <v>10619889.60560405</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>11169320.5558616</v>
+        <v>10619889.60560405</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>186.4113</v>
+        <v>124.2742</v>
       </c>
       <c r="H9">
-        <v>1.164947167339765</v>
+        <v>1.141729874861803</v>
       </c>
       <c r="I9">
-        <v>29.2151675197914</v>
+        <v>25.65155092228744</v>
       </c>
       <c r="J9">
-        <v>3.056689002140252</v>
+        <v>2.683839260510136</v>
       </c>
       <c r="K9">
-        <v>4099.081085650121</v>
+        <v>3599.082125129302</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3156,6 +3396,171 @@
       </c>
       <c r="R9">
         <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10">
+        <v>250</v>
+      </c>
+      <c r="G10">
+        <v>155.34275</v>
+      </c>
+      <c r="H10">
+        <v>1.344806962058428</v>
+      </c>
+      <c r="I10">
+        <v>58.59860133366418</v>
+      </c>
+      <c r="J10">
+        <v>6.13098316537366</v>
+      </c>
+      <c r="K10">
+        <v>8221.771044429386</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>6.13098316537366</v>
+      </c>
+      <c r="N10">
+        <v>0.78</v>
+      </c>
+      <c r="O10">
+        <v>0.357</v>
+      </c>
+      <c r="P10">
+        <v>15707294.13531568</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>15707294.13531568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>186.4113</v>
+      </c>
+      <c r="H11">
+        <v>1.341394791657151</v>
+      </c>
+      <c r="I11">
+        <v>57.88919118018227</v>
+      </c>
+      <c r="J11">
+        <v>6.056759862950843</v>
+      </c>
+      <c r="K11">
+        <v>8122.236111414339</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12.5</v>
+      </c>
+      <c r="N11">
+        <v>0.78</v>
+      </c>
+      <c r="O11">
+        <v>0.357</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="R11">
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12">
+        <v>350</v>
+      </c>
+      <c r="G12">
+        <v>217.47985</v>
+      </c>
+      <c r="H12">
+        <v>1.338059750279324</v>
+      </c>
+      <c r="I12">
+        <v>57.19616667403859</v>
+      </c>
+      <c r="J12">
+        <v>5.984250938101857</v>
+      </c>
+      <c r="K12">
+        <v>8025.000193013352</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.984250938101857</v>
+      </c>
+      <c r="N12">
+        <v>0.78</v>
+      </c>
+      <c r="O12">
+        <v>0.357</v>
+      </c>
+      <c r="P12">
+        <v>15486174.07617624</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>15486174.07617624</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3570,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3173,186 +3578,226 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>5177600.666357243</v>
+        <v>3910263.197377139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B5">
-        <v>5962104.62076752</v>
+        <v>4160343.621608063</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B6">
-        <v>5180898.616480034</v>
+        <v>3913785.330364708</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B7">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B8">
-        <v>5281075.463045253</v>
+        <v>3917291.551571103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>5262347.723921567</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B10">
-        <v>6082278.702557526</v>
+        <v>3818615.35009624</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11">
-        <v>5533037.372720466</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>6082278.702557526</v>
+        <v>4545192.462580125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>5835898.884031092</v>
+        <v>4065822.919229243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B14">
-        <v>5534154.598728091</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B15">
-        <v>6082278.702557526</v>
+        <v>4130455.347439364</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>5535275.380647736</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>6082278.702557526</v>
+        <v>4677317.698488029</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B18">
-        <v>5218100.651013173</v>
+        <v>4132204.481111447</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B19">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B20">
-        <v>5221076.863465678</v>
+        <v>4133944.794740473</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B22">
-        <v>5224030.537804731</v>
+        <v>3509684.591430287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24">
+        <v>3518612.34480698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26">
+        <v>3527382.295296871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>158</v>
       </c>
-      <c r="B23">
-        <v>4188132.461851356</v>
+      <c r="B27">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>3535999.081207058</v>
       </c>
     </row>
   </sheetData>
@@ -3370,36 +3815,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.7856509852259</v>
+        <v>19.78565086486059</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3408,21 +3853,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520406892454</v>
+        <v>1150.520399893304</v>
       </c>
       <c r="G2">
-        <v>5.990727389881733E-07</v>
+        <v>-9.273759042682574E-09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156552293</v>
+        <v>51.44269156552292</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3431,15 +3876,15 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000000001</v>
+        <v>2991.353</v>
       </c>
       <c r="G3">
-        <v>1.381231646588859E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
@@ -3454,10 +3899,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800000001</v>
+        <v>2301.0408</v>
       </c>
       <c r="G4">
-        <v>1.795601116554962E-14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="231">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -354,6 +354,9 @@
     <t>C_1_3</t>
   </si>
   <si>
+    <t>C_1_4</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -414,16 +417,28 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_remaining</t>
-  </si>
-  <si>
-    <t>PI02_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>PI02_remaining</t>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
+  </si>
+  <si>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_0_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
+  </si>
+  <si>
+    <t>PI02</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
   </si>
   <si>
     <t>PI03_pre_C_1_0</t>
@@ -432,7 +447,13 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
+    <t>PI04_0_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
   </si>
   <si>
     <t>PI04_pre_C_1_2</t>
@@ -441,39 +462,84 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI05_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_remaining</t>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_0</t>
   </si>
   <si>
@@ -483,6 +549,12 @@
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
@@ -492,18 +564,51 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -523,6 +628,9 @@
   </si>
   <si>
     <t>N_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_4</t>
   </si>
   <si>
     <t>N06</t>
@@ -1209,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1339,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3723548871128604</v>
+        <v>0.3901679087859629</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1253,7 +1361,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.06595259576151787</v>
+        <v>0.07205600509877143</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1264,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03181838469559267</v>
+        <v>0.03181178051715099</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1286,7 +1394,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006575060516112975</v>
+        <v>0.006573695805951581</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1297,7 +1405,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01558822608023386</v>
+        <v>0.01558499061031268</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1319,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1330,7 +1438,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1962100349572231</v>
+        <v>0.2059556979291795</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1374,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.004711011094943538</v>
+        <v>0.004945428150148604</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1385,7 +1493,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.03288669400913096</v>
+        <v>0.03455293780753024</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1396,7 +1504,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001594868276121781</v>
+        <v>0.001669361144934337</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1484,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1492,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>47309.88915766518</v>
+        <v>50090.59410866161</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1503,7 +1611,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>11165.98811146874</v>
+        <v>11720.59764969634</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1514,7 +1622,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>465.249504644531</v>
+        <v>488.3582354040141</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1547,7 +1655,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>105189733.6935306</v>
+        <v>114948099.1217822</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1621,7 +1729,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1697,22 +1805,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>4.722950300137237</v>
+        <v>5.033373931167283</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>6333.570811490037</v>
+        <v>6749.85510917395</v>
       </c>
       <c r="E52">
-        <v>13599356.37645626</v>
+        <v>14061415.54877319</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>45.14092997669879</v>
+        <v>48.10789140990141</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1723,22 +1831,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>4.690292505426569</v>
+        <v>4.996607960490229</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>6289.776055627138</v>
+        <v>6700.551207176606</v>
       </c>
       <c r="E53">
-        <v>13550833.71629239</v>
+        <v>14006611.32220175</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>44.82879389002755</v>
+        <v>47.75649027239419</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1749,7 +1857,7 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>4.657926753312031</v>
+        <v>4.960695825483434</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1764,7 +1872,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>44.51944908286261</v>
+        <v>47.41324991019763</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1775,22 +1883,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>5.304279892843667</v>
+        <v>4.49559403310495</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>7113.145421901214</v>
+        <v>6028.6815102744</v>
       </c>
       <c r="E55">
-        <v>14465887.49983782</v>
+        <v>13261899.31792344</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>50.69715156916003</v>
+        <v>42.96790831065038</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1801,22 +1909,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>3.041027448717598</v>
+        <v>2.913374344413192</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4078.078629279274</v>
+        <v>3906.893263344979</v>
       </c>
       <c r="E56">
-        <v>11122106.21089115</v>
+        <v>10935900.08928312</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>29.06547780436971</v>
+        <v>27.84539724528655</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1827,22 +1935,22 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>2.708916660432207</v>
+        <v>2.32139796386404</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>3632.711419972799</v>
+        <v>3113.041097500954</v>
       </c>
       <c r="E57">
-        <v>10638192.07295702</v>
+        <v>10075728.96939949</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>25.89123524711445</v>
+        <v>22.18741597424662</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1853,22 +1961,22 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>2.696332330578206</v>
+        <v>2.312667383384195</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>3615.835581951986</v>
+        <v>3101.333214465873</v>
       </c>
       <c r="E58">
-        <v>10619889.60560405</v>
+        <v>10063084.09642014</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>25.7709569641254</v>
+        <v>22.10397098815706</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1879,22 +1987,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>2.683839260510136</v>
+        <v>2.303902571480693</v>
       </c>
       <c r="C59">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3089.579426407039</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10050390.84616666</v>
       </c>
       <c r="F59">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>25.65155092228744</v>
+        <v>22.02019882557822</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -1905,22 +2013,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>6.13098316537366</v>
+        <v>2.295146045064941</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D60">
-        <v>8221.771044429386</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>15707294.13531568</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G60">
-        <v>58.59860133366418</v>
+        <v>21.93650585388612</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -1931,22 +2039,22 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>6.056759862950843</v>
+        <v>6.571477413418248</v>
       </c>
       <c r="C61">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>8812.482640942138</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>16373129.60059679</v>
       </c>
       <c r="F61">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>57.88919118018227</v>
+        <v>62.8087493857285</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -1957,24 +2065,50 @@
         <v>112</v>
       </c>
       <c r="B62">
-        <v>5.984250938101857</v>
+        <v>6.486901616573046</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D62">
-        <v>8025.000193013352</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>15486174.07617624</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G62">
-        <v>57.19616667403859</v>
+        <v>62.0003923460616</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63">
+        <v>6.40421219622054</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>8588.176639375668</v>
+      </c>
+      <c r="E63">
+        <v>16119939.33101763</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>61.21006488192592</v>
+      </c>
+      <c r="H63">
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,58 +2127,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2052,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F2">
-        <v>113.144242518777</v>
+        <v>113.260456733442</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2082,25 +2216,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>23.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>14.49865666666666</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>3910263.197377139</v>
+        <v>4264435.549612246</v>
       </c>
       <c r="P2">
-        <v>15.11892765537693</v>
+        <v>12.90819700854744</v>
       </c>
       <c r="Q2">
-        <v>0.0309490631342477</v>
+        <v>0.02604346914486793</v>
       </c>
       <c r="R2">
-        <v>25.34626665447339</v>
+        <v>24.55252784434839</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2108,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F3">
-        <v>112.9170599125221</v>
+        <v>113.2604523168462</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2138,25 +2272,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>16.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="M3">
-        <v>10.35618333333334</v>
+        <v>6.213709999999999</v>
       </c>
       <c r="N3">
-        <v>4719848.27318464</v>
+        <v>4264435.549612246</v>
       </c>
       <c r="O3">
-        <v>4160343.621608063</v>
+        <v>3886441.32340106</v>
       </c>
       <c r="P3">
-        <v>14.1689093123166</v>
+        <v>12.93390685308389</v>
       </c>
       <c r="Q3">
-        <v>0.02895708539190644</v>
+        <v>0.02612977144689239</v>
       </c>
       <c r="R3">
-        <v>24.56145347913661</v>
+        <v>25.76605779725165</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2164,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F4">
-        <v>112.9170582868537</v>
+        <v>113.0184717301781</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2194,25 +2328,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>6.666666666666664</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="M4">
-        <v>4.142473333333332</v>
+        <v>2.071236666666668</v>
       </c>
       <c r="N4">
-        <v>4160343.621608063</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>3913785.330364708</v>
+        <v>4610853.161317504</v>
       </c>
       <c r="P4">
-        <v>15.07509813971217</v>
+        <v>12.78195097869709</v>
       </c>
       <c r="Q4">
-        <v>0.03085861730335536</v>
+        <v>0.02575644152338566</v>
       </c>
       <c r="R4">
-        <v>25.33470919173698</v>
+        <v>23.57378119826436</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2220,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F5">
-        <v>112.6910521570893</v>
+        <v>113.0184714815208</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2250,45 +2384,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>23.33333333333334</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M5">
-        <v>14.49865666666667</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N5">
-        <v>4719848.27318464</v>
+        <v>4610853.161317504</v>
       </c>
       <c r="O5">
-        <v>3917291.551571103</v>
+        <v>4145030.807190802</v>
       </c>
       <c r="P5">
-        <v>15.03126323507149</v>
+        <v>12.81542056132876</v>
       </c>
       <c r="Q5">
-        <v>0.03076816843838828</v>
+        <v>0.02586679563425172</v>
       </c>
       <c r="R5">
-        <v>25.3232189622581</v>
+        <v>24.91832827843772</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F6">
-        <v>112.4666759735224</v>
+        <v>113.0184711429129</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2306,45 +2440,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M6">
-        <v>16.155646</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N6">
-        <v>4719848.27318464</v>
+        <v>4145030.807190802</v>
       </c>
       <c r="O6">
-        <v>3818615.35009624</v>
+        <v>3890340.419859686</v>
       </c>
       <c r="P6">
-        <v>15.39390940063599</v>
+        <v>12.8322527595281</v>
       </c>
       <c r="Q6">
-        <v>0.03153141875502605</v>
+        <v>0.02592407986544015</v>
       </c>
       <c r="R6">
-        <v>25.65242504224733</v>
+        <v>25.75262627920941</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F7">
-        <v>112.2111629863413</v>
+        <v>112.777811964156</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2362,45 +2496,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L7">
-        <v>5.5</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M7">
-        <v>3.4175405</v>
+        <v>5.178091666666668</v>
       </c>
       <c r="N7">
         <v>4719848.27318464</v>
       </c>
       <c r="O7">
-        <v>4545192.462580125</v>
+        <v>4443316.081960844</v>
       </c>
       <c r="P7">
-        <v>12.86698919109303</v>
+        <v>12.80493377198139</v>
       </c>
       <c r="Q7">
-        <v>0.02623372541108748</v>
+        <v>0.02581901714278486</v>
       </c>
       <c r="R7">
-        <v>23.47936396352996</v>
+        <v>24.03241507509743</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F8">
-        <v>92.42551212148066</v>
+        <v>112.7778119438935</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2418,25 +2552,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>12.7381055</v>
+        <v>9.320565</v>
       </c>
       <c r="N8">
-        <v>4545192.462580125</v>
+        <v>4443316.081960844</v>
       </c>
       <c r="O8">
-        <v>4065822.919229243</v>
+        <v>3894139.341943064</v>
       </c>
       <c r="P8">
-        <v>11.87151201875485</v>
+        <v>12.8429655399812</v>
       </c>
       <c r="Q8">
-        <v>0.02427662776351341</v>
+        <v>0.02594540466018365</v>
       </c>
       <c r="R8">
-        <v>24.84980455074508</v>
+        <v>25.73956002145564</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2444,19 +2578,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F9">
-        <v>92.27902212016393</v>
+        <v>112.5388508877531</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2474,25 +2608,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>26</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>16.155646</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4130455.347439364</v>
+        <v>4183599.393586144</v>
       </c>
       <c r="P9">
-        <v>11.66436613262302</v>
+        <v>12.85318526944181</v>
       </c>
       <c r="Q9">
-        <v>0.02384309100455831</v>
+        <v>0.02593916367260167</v>
       </c>
       <c r="R9">
-        <v>24.6515920069197</v>
+        <v>24.79891177332963</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2500,19 +2634,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F10">
-        <v>92.14853025517932</v>
+        <v>112.538850886612</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2530,25 +2664,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>5.916666666666671</v>
       </c>
       <c r="M10">
-        <v>1.242742</v>
+        <v>3.676445083333336</v>
       </c>
       <c r="N10">
-        <v>4719848.27318464</v>
+        <v>4183599.393586144</v>
       </c>
       <c r="O10">
-        <v>4677317.698488029</v>
+        <v>3962607.602705328</v>
       </c>
       <c r="P10">
-        <v>10.26167585279165</v>
+        <v>12.86837740374916</v>
       </c>
       <c r="Q10">
-        <v>0.02090537828513303</v>
+        <v>0.02599084198315984</v>
       </c>
       <c r="R10">
-        <v>23.13826715825391</v>
+        <v>25.50742359591589</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2556,19 +2690,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F11">
-        <v>92.1485302551792</v>
+        <v>112.3222926347343</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2586,25 +2720,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>9.833333333333329</v>
       </c>
       <c r="M11">
-        <v>14.912904</v>
+        <v>6.110148166666664</v>
       </c>
       <c r="N11">
-        <v>4677317.698488029</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>4132204.481111447</v>
+        <v>4394317.192259423</v>
       </c>
       <c r="P11">
-        <v>11.64286235963864</v>
+        <v>12.76832531391201</v>
       </c>
       <c r="Q11">
-        <v>0.02379886844880079</v>
+        <v>0.02574977919401776</v>
       </c>
       <c r="R11">
-        <v>24.6462907138632</v>
+        <v>24.17158879368818</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2612,19 +2746,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F12">
-        <v>92.01864459067278</v>
+        <v>92.53664176817939</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2642,45 +2776,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="M12">
-        <v>16.155646</v>
+        <v>7.35289016666667</v>
       </c>
       <c r="N12">
-        <v>4719848.27318464</v>
+        <v>4394317.192259423</v>
       </c>
       <c r="O12">
-        <v>4133944.794740473</v>
+        <v>4106317.926704159</v>
       </c>
       <c r="P12">
-        <v>11.62147868523681</v>
+        <v>10.5438574582311</v>
       </c>
       <c r="Q12">
-        <v>0.02375489378979321</v>
+        <v>0.02128496440132934</v>
       </c>
       <c r="R12">
-        <v>24.64101939818303</v>
+        <v>25.0399298249161</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F13">
-        <v>91.88936073274286</v>
+        <v>92.3963009234613</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2698,45 +2832,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>4.333333333333329</v>
       </c>
       <c r="M13">
-        <v>31.06855</v>
+        <v>2.692607666666664</v>
       </c>
       <c r="N13">
         <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>3509684.591430287</v>
+        <v>4624572.071829659</v>
       </c>
       <c r="P13">
-        <v>13.69559047978017</v>
+        <v>10.45785487778029</v>
       </c>
       <c r="Q13">
-        <v>0.02811384779065762</v>
+        <v>0.02107228052506833</v>
       </c>
       <c r="R13">
-        <v>26.768476667794</v>
+        <v>23.53718013840717</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F14">
-        <v>91.5940236877143</v>
+        <v>92.39630092346067</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2754,45 +2888,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M14">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N14">
-        <v>4719848.27318464</v>
+        <v>4624572.071829659</v>
       </c>
       <c r="O14">
-        <v>3518612.34480698</v>
+        <v>4249470.37715107</v>
       </c>
       <c r="P14">
-        <v>13.6166775055779</v>
+        <v>10.49113652188112</v>
       </c>
       <c r="Q14">
-        <v>0.02795003539006163</v>
+        <v>0.02116786365211402</v>
       </c>
       <c r="R14">
-        <v>26.73424345258185</v>
+        <v>24.59758704704875</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F15">
-        <v>91.30226207100091</v>
+        <v>92.39630092345985</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2810,45 +2944,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>1.166666666666671</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>0.724932833333336</v>
       </c>
       <c r="N15">
-        <v>4719848.27318464</v>
+        <v>4249470.37715107</v>
       </c>
       <c r="O15">
-        <v>3527382.295296871</v>
+        <v>4221054.714465837</v>
       </c>
       <c r="P15">
-        <v>13.53930200202775</v>
+        <v>10.49355042223828</v>
       </c>
       <c r="Q15">
-        <v>0.02778943601298772</v>
+        <v>0.02117466943181083</v>
       </c>
       <c r="R15">
-        <v>26.70073770841383</v>
+        <v>24.6838319895876</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F16">
-        <v>91.01399329891385</v>
+        <v>92.28447631130091</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2866,25 +3000,977 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>9.320565</v>
       </c>
       <c r="N16">
         <v>4719848.27318464</v>
       </c>
       <c r="O16">
-        <v>3535999.081207058</v>
+        <v>4381664.299131653</v>
       </c>
       <c r="P16">
-        <v>13.46341236725417</v>
+        <v>10.53361091191387</v>
       </c>
       <c r="Q16">
-        <v>0.02763194133806877</v>
+        <v>0.02124400627723843</v>
       </c>
       <c r="R16">
-        <v>26.66793455380455</v>
+        <v>24.20792191089027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17">
+        <v>92.28447631130038</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L17">
+        <v>6.666666666666671</v>
+      </c>
+      <c r="M17">
+        <v>4.142473333333336</v>
+      </c>
+      <c r="N17">
+        <v>4381664.299131653</v>
+      </c>
+      <c r="O17">
+        <v>4222294.450034484</v>
+      </c>
+      <c r="P17">
+        <v>10.54762626844555</v>
+      </c>
+      <c r="Q17">
+        <v>0.02128370370409806</v>
+      </c>
+      <c r="R17">
+        <v>24.68005030002206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18">
+        <v>92.17307226194796</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>6.21371</v>
+      </c>
+      <c r="N18">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O18">
+        <v>4497875.717801064</v>
+      </c>
+      <c r="P18">
+        <v>10.47922730769847</v>
+      </c>
+      <c r="Q18">
+        <v>0.02112531327315877</v>
+      </c>
+      <c r="R18">
+        <v>23.88024042182574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19">
+        <v>92.17307226194815</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>7.249328333333335</v>
+      </c>
+      <c r="N19">
+        <v>4497875.717801064</v>
+      </c>
+      <c r="O19">
+        <v>4223546.56558342</v>
+      </c>
+      <c r="P19">
+        <v>10.50347398291093</v>
+      </c>
+      <c r="Q19">
+        <v>0.02119452570693938</v>
+      </c>
+      <c r="R19">
+        <v>24.67623261026252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20">
+        <v>92.06209042442846</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>3.106855</v>
+      </c>
+      <c r="N20">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O20">
+        <v>4610520.257384233</v>
+      </c>
+      <c r="P20">
+        <v>10.42547581614166</v>
+      </c>
+      <c r="Q20">
+        <v>0.02100801780458098</v>
+      </c>
+      <c r="R20">
+        <v>23.57467148504154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21">
+        <v>92.0620904244286</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4610520.257384233</v>
+      </c>
+      <c r="O21">
+        <v>4224802.173876381</v>
+      </c>
+      <c r="P21">
+        <v>10.45972072127265</v>
+      </c>
+      <c r="Q21">
+        <v>0.02110615327616496</v>
+      </c>
+      <c r="R21">
+        <v>24.67240604966828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22">
+        <v>91.95153039962099</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O22">
+        <v>4345180.407287946</v>
+      </c>
+      <c r="P22">
+        <v>10.50957231631466</v>
+      </c>
+      <c r="Q22">
+        <v>0.02119823996541302</v>
+      </c>
+      <c r="R22">
+        <v>24.31361083263657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23">
+        <v>91.95153039962111</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4345180.407287946</v>
+      </c>
+      <c r="O23">
+        <v>3933373.922699514</v>
+      </c>
+      <c r="P23">
+        <v>10.54472604115846</v>
+      </c>
+      <c r="Q23">
+        <v>0.02129975402861222</v>
+      </c>
+      <c r="R23">
+        <v>25.60576720631133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24">
+        <v>91.95153039962106</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>3933373.922699514</v>
+      </c>
+      <c r="O24">
+        <v>3470980.182958222</v>
+      </c>
+      <c r="P24">
+        <v>10.58022967448047</v>
+      </c>
+      <c r="Q24">
+        <v>0.02140448812977332</v>
+      </c>
+      <c r="R24">
+        <v>27.32133503409471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25">
+        <v>91.63497420163434</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N25">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O25">
+        <v>4347815.927861265</v>
+      </c>
+      <c r="P25">
+        <v>10.47339162154579</v>
+      </c>
+      <c r="Q25">
+        <v>0.02112506866159431</v>
+      </c>
+      <c r="R25">
+        <v>24.30592965456304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26">
+        <v>91.63497420163436</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>4347815.927861265</v>
+      </c>
+      <c r="O26">
+        <v>3939216.483887758</v>
+      </c>
+      <c r="P26">
+        <v>10.50842432470095</v>
+      </c>
+      <c r="Q26">
+        <v>0.02122601292005755</v>
+      </c>
+      <c r="R26">
+        <v>25.58602157829183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27">
+        <v>91.63497420163436</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>3939216.483887758</v>
+      </c>
+      <c r="O27">
+        <v>3480948.337916513</v>
+      </c>
+      <c r="P27">
+        <v>10.54380573172472</v>
+      </c>
+      <c r="Q27">
+        <v>0.02133015486122774</v>
+      </c>
+      <c r="R27">
+        <v>27.28074000080384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28">
+        <v>91.32249212442849</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O28">
+        <v>4350407.226804583</v>
+      </c>
+      <c r="P28">
+        <v>10.43767657717759</v>
+      </c>
+      <c r="Q28">
+        <v>0.02105284083324872</v>
+      </c>
+      <c r="R28">
+        <v>24.29838445296166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29">
+        <v>91.32249212442846</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4350407.226804583</v>
+      </c>
+      <c r="O29">
+        <v>3944955.829564224</v>
+      </c>
+      <c r="P29">
+        <v>10.47258981620949</v>
+      </c>
+      <c r="Q29">
+        <v>0.02115322386248619</v>
+      </c>
+      <c r="R29">
+        <v>25.56666918841852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30">
+        <v>91.32249212442848</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>3944955.829564224</v>
+      </c>
+      <c r="O30">
+        <v>3490726.529125615</v>
+      </c>
+      <c r="P30">
+        <v>10.50785057000389</v>
+      </c>
+      <c r="Q30">
+        <v>0.02125678026634378</v>
+      </c>
+      <c r="R30">
+        <v>27.24109388993493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31">
+        <v>91.0139932989138</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L31">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M31">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N31">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O31">
+        <v>4352955.472069596</v>
+      </c>
+      <c r="P31">
+        <v>10.40241679735495</v>
+      </c>
+      <c r="Q31">
+        <v>0.02098153540783242</v>
+      </c>
+      <c r="R31">
+        <v>24.29097146103663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32">
+        <v>91.01399329891386</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>4352955.472069596</v>
+      </c>
+      <c r="O32">
+        <v>3950594.828812794</v>
+      </c>
+      <c r="P32">
+        <v>10.4372120950891</v>
+      </c>
+      <c r="Q32">
+        <v>0.02108136559675602</v>
+      </c>
+      <c r="R32">
+        <v>25.54769785861165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33">
+        <v>91.01399329891386</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>3950594.828812794</v>
+      </c>
+      <c r="O33">
+        <v>3500320.491590923</v>
+      </c>
+      <c r="P33">
+        <v>10.4723537336373</v>
+      </c>
+      <c r="Q33">
+        <v>0.0211843430908174</v>
+      </c>
+      <c r="R33">
+        <v>27.20236225804768</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +3980,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2902,58 +3988,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2964,13 +4050,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F2">
         <v>23.33333333333333</v>
@@ -2979,22 +4065,22 @@
         <v>14.49865666666667</v>
       </c>
       <c r="H2">
-        <v>1.207041069857022</v>
+        <v>1.214439606939507</v>
       </c>
       <c r="I2">
-        <v>45.14092997669879</v>
+        <v>48.10789140990141</v>
       </c>
       <c r="J2">
-        <v>4.722950300137237</v>
+        <v>5.033373931167283</v>
       </c>
       <c r="K2">
-        <v>6333.570811490037</v>
+        <v>6749.85510917395</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.722950300137237</v>
+        <v>5.033373931167283</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -3003,13 +4089,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>13599356.37645626</v>
+        <v>14061415.54877319</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>13599356.37645626</v>
+        <v>14061415.54877319</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3020,13 +4106,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F3">
         <v>46.66666666666666</v>
@@ -3035,22 +4121,22 @@
         <v>28.99731333333333</v>
       </c>
       <c r="H3">
-        <v>1.205954817339156</v>
+        <v>1.213222433977866</v>
       </c>
       <c r="I3">
-        <v>44.82879389002755</v>
+        <v>47.75649027239419</v>
       </c>
       <c r="J3">
-        <v>4.690292505426569</v>
+        <v>4.996607960490229</v>
       </c>
       <c r="K3">
-        <v>6289.776055627138</v>
+        <v>6700.551207176606</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.690292505426569</v>
+        <v>4.996607960490229</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -3059,13 +4145,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>13550833.71629239</v>
+        <v>14006611.32220175</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>13550833.71629239</v>
+        <v>14006611.32220175</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3073,13 +4159,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F4">
         <v>70</v>
@@ -3088,16 +4174,16 @@
         <v>43.49597</v>
       </c>
       <c r="H4">
-        <v>1.204875412270924</v>
+        <v>1.212038876562021</v>
       </c>
       <c r="I4">
-        <v>44.51944908286261</v>
+        <v>47.41324991019763</v>
       </c>
       <c r="J4">
-        <v>4.657926753312031</v>
+        <v>4.960695825483434</v>
       </c>
       <c r="K4">
-        <v>6246.3729347265</v>
+        <v>6652.392315889794</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3129,37 +4215,37 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="G5">
-        <v>59.651616</v>
+        <v>56.95900833333334</v>
       </c>
       <c r="H5">
-        <v>1.236010396560546</v>
+        <v>1.191096557217105</v>
       </c>
       <c r="I5">
-        <v>50.69715156916003</v>
+        <v>42.96790831065038</v>
       </c>
       <c r="J5">
-        <v>5.304279892843667</v>
+        <v>4.49559403310495</v>
       </c>
       <c r="K5">
-        <v>7113.145421901214</v>
+        <v>6028.6815102744</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.304279892843667</v>
+        <v>4.49559403310495</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -3168,13 +4254,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>14465887.49983782</v>
+        <v>13261899.31792344</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>14465887.49983782</v>
+        <v>13261899.31792344</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3185,37 +4271,37 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F6">
-        <v>122</v>
+        <v>113.3333333333333</v>
       </c>
       <c r="G6">
-        <v>75.80726199999999</v>
+        <v>70.42204666666667</v>
       </c>
       <c r="H6">
-        <v>1.160859281613618</v>
+        <v>1.149411311406401</v>
       </c>
       <c r="I6">
-        <v>29.06547780436971</v>
+        <v>27.84539724528655</v>
       </c>
       <c r="J6">
-        <v>3.041027448717598</v>
+        <v>2.913374344413192</v>
       </c>
       <c r="K6">
-        <v>4078.078629279274</v>
+        <v>3906.893263344979</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.041027448717598</v>
+        <v>2.913374344413192</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3224,13 +4310,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>11122106.21089115</v>
+        <v>10935900.08928312</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>11122106.21089115</v>
+        <v>10935900.08928312</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3241,37 +4327,37 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F7">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G7">
-        <v>91.962908</v>
+        <v>83.885085</v>
       </c>
       <c r="H7">
-        <v>1.14269441893632</v>
+        <v>1.118167991760307</v>
       </c>
       <c r="I7">
-        <v>25.89123524711445</v>
+        <v>22.18741597424662</v>
       </c>
       <c r="J7">
-        <v>2.708916660432207</v>
+        <v>2.32139796386404</v>
       </c>
       <c r="K7">
-        <v>3632.711419972799</v>
+        <v>3113.041097500954</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.708916660432207</v>
+        <v>2.32139796386404</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3280,13 +4366,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>10638192.07295702</v>
+        <v>10075728.96939949</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>10638192.07295702</v>
+        <v>10075728.96939949</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3297,37 +4383,37 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="F8">
-        <v>174</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G8">
-        <v>108.118554</v>
+        <v>97.34812333333335</v>
       </c>
       <c r="H8">
-        <v>1.142210724265788</v>
+        <v>1.117839679121879</v>
       </c>
       <c r="I8">
-        <v>25.7709569641254</v>
+        <v>22.10397098815706</v>
       </c>
       <c r="J8">
-        <v>2.696332330578206</v>
+        <v>2.312667383384195</v>
       </c>
       <c r="K8">
-        <v>3615.835581951986</v>
+        <v>3101.333214465873</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.696332330578206</v>
+        <v>2.312667383384195</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3336,51 +4422,54 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>10619889.60560405</v>
+        <v>10063084.09642014</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>10619889.60560405</v>
+        <v>10063084.09642014</v>
       </c>
     </row>
     <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>178.3333333333334</v>
       </c>
       <c r="G9">
-        <v>124.2742</v>
+        <v>110.8111616666667</v>
       </c>
       <c r="H9">
-        <v>1.141729874861803</v>
+        <v>1.117508283594042</v>
       </c>
       <c r="I9">
-        <v>25.65155092228744</v>
+        <v>22.02019882557822</v>
       </c>
       <c r="J9">
-        <v>2.683839260510136</v>
+        <v>2.303902571480693</v>
       </c>
       <c r="K9">
-        <v>3599.082125129302</v>
+        <v>3089.579426407039</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>2.303902571480693</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -3389,54 +4478,51 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10050390.84616666</v>
       </c>
       <c r="Q9">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16916025.69007904</v>
+        <v>10050390.84616666</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10">
-        <v>2</v>
-      </c>
       <c r="B10" t="s">
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>155.34275</v>
+        <v>124.2742</v>
       </c>
       <c r="H10">
-        <v>1.344806962058428</v>
+        <v>1.11717616090271</v>
       </c>
       <c r="I10">
-        <v>58.59860133366418</v>
+        <v>21.93650585388612</v>
       </c>
       <c r="J10">
-        <v>6.13098316537366</v>
+        <v>2.295146045064941</v>
       </c>
       <c r="K10">
-        <v>8221.771044429386</v>
+        <v>3077.836749352988</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>6.13098316537366</v>
+        <v>12.5</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -3445,51 +4531,54 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>15707294.13531568</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R10">
-        <v>15707294.13531568</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>186.4113</v>
+        <v>155.34275</v>
       </c>
       <c r="H11">
-        <v>1.341394791657151</v>
+        <v>1.359802714045472</v>
       </c>
       <c r="I11">
-        <v>57.88919118018227</v>
+        <v>62.8087493857285</v>
       </c>
       <c r="J11">
-        <v>6.056759862950843</v>
+        <v>6.571477413418248</v>
       </c>
       <c r="K11">
-        <v>8122.236111414339</v>
+        <v>8812.482640942138</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12.5</v>
+        <v>6.571477413418248</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -3498,54 +4587,51 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>16373129.60059679</v>
       </c>
       <c r="Q11">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>16916025.69007904</v>
+        <v>16373129.60059679</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12">
-        <v>3</v>
-      </c>
       <c r="B12" t="s">
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F12">
-        <v>350</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G12">
-        <v>217.47985</v>
+        <v>186.4113</v>
       </c>
       <c r="H12">
-        <v>1.338059750279324</v>
+        <v>1.355908739515985</v>
       </c>
       <c r="I12">
-        <v>57.19616667403859</v>
+        <v>62.0003923460616</v>
       </c>
       <c r="J12">
-        <v>5.984250938101857</v>
+        <v>6.486901616573046</v>
       </c>
       <c r="K12">
-        <v>8025.000193013352</v>
+        <v>8699.064805856786</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.984250938101857</v>
+        <v>12.5</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -3554,13 +4640,69 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>15486174.07617624</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R12">
-        <v>15486174.07617624</v>
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13">
+        <v>350.0000000000001</v>
+      </c>
+      <c r="G13">
+        <v>217.47985</v>
+      </c>
+      <c r="H13">
+        <v>1.352110580363024</v>
+      </c>
+      <c r="I13">
+        <v>61.21006488192592</v>
+      </c>
+      <c r="J13">
+        <v>6.40421219622054</v>
+      </c>
+      <c r="K13">
+        <v>8588.176639375668</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6.40421219622054</v>
+      </c>
+      <c r="N13">
+        <v>0.78</v>
+      </c>
+      <c r="O13">
+        <v>0.357</v>
+      </c>
+      <c r="P13">
+        <v>16119939.33101763</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>16119939.33101763</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +4712,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3578,15 +4720,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -3594,55 +4736,55 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B3">
-        <v>3910263.197377139</v>
+        <v>4264435.549612246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B4">
-        <v>4719848.27318464</v>
+        <v>3886441.32340106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B5">
-        <v>4160343.621608063</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>3913785.330364708</v>
+        <v>4610853.161317504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B7">
-        <v>4719848.27318464</v>
+        <v>4145030.807190802</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B8">
-        <v>3917291.551571103</v>
+        <v>3890340.419859686</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>4719848.27318464</v>
@@ -3650,127 +4792,127 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B10">
-        <v>3818615.35009624</v>
+        <v>4443316.081960844</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B11">
-        <v>4719848.27318464</v>
+        <v>3894139.341943064</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B12">
-        <v>4545192.462580125</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B13">
-        <v>4065822.919229243</v>
+        <v>4183599.393586144</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B14">
-        <v>4719848.27318464</v>
+        <v>3962607.602705328</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B15">
-        <v>4130455.347439364</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B16">
-        <v>4719848.27318464</v>
+        <v>4394317.192259423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B17">
-        <v>4677317.698488029</v>
+        <v>4106317.926704159</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B18">
-        <v>4132204.481111447</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B19">
-        <v>4719848.27318464</v>
+        <v>4624572.071829659</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B20">
-        <v>4133944.794740473</v>
+        <v>4249470.37715107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="B21">
-        <v>4719848.27318464</v>
+        <v>4221054.714465837</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B22">
-        <v>3509684.591430287</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B23">
-        <v>4719848.27318464</v>
+        <v>4381664.299131653</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>3518612.34480698</v>
+        <v>4222294.450034484</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B25">
         <v>4719848.27318464</v>
@@ -3778,26 +4920,170 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B26">
-        <v>3527382.295296871</v>
+        <v>4497875.717801064</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B27">
-        <v>4719848.27318464</v>
+        <v>4223546.56558342</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B28">
-        <v>3535999.081207058</v>
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29">
+        <v>4610520.257384233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30">
+        <v>4224802.173876381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32">
+        <v>4345180.407287946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33">
+        <v>3933373.922699514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34">
+        <v>3470980.182958222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36">
+        <v>4347815.927861265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>3939216.483887758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38">
+        <v>3480948.337916513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40">
+        <v>4350407.226804583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41">
+        <v>3944955.829564224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42">
+        <v>3490726.529125615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44">
+        <v>4352955.472069596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45">
+        <v>3950594.828812794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46">
+        <v>3500320.491590923</v>
       </c>
     </row>
   </sheetData>
@@ -3815,36 +5101,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565086486059</v>
+        <v>19.7856508665549</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3853,21 +5139,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520399893304</v>
+        <v>1150.520399991827</v>
       </c>
       <c r="G2">
-        <v>-9.273759042682574E-09</v>
+        <v>-7.103936697426394E-10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156552292</v>
+        <v>51.44269156552293</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3876,15 +5162,15 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353</v>
+        <v>2991.353000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.381231646588859E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
@@ -3899,10 +5185,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.0408</v>
+        <v>2301.040800000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.795601116554962E-14</v>
       </c>
     </row>
   </sheetData>
